--- a/exc_115.xlsx
+++ b/exc_115.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ISPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharv\Documents\GitHub\ISPS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD35234A-FD28-49CC-95E6-181DA1C3B28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242DB2D-CCCC-4B69-9F1A-5003C3F32F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{69133F0B-4067-466E-9409-A51B0D690406}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{69133F0B-4067-466E-9409-A51B0D690406}"/>
   </bookViews>
   <sheets>
     <sheet name="exc_115" sheetId="1" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB849E5-FBBE-478E-8932-AD2FB0668703}">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1250,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1870,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA06CD1-E1CA-4012-AA82-FDD484D7C3DF}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/exc_115.xlsx
+++ b/exc_115.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharv\Documents\GitHub\ISPS2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ISPS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242DB2D-CCCC-4B69-9F1A-5003C3F32F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DADF52-4247-484A-9D81-9C5B6988BB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{69133F0B-4067-466E-9409-A51B0D690406}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69133F0B-4067-466E-9409-A51B0D690406}"/>
   </bookViews>
   <sheets>
     <sheet name="exc_115" sheetId="1" r:id="rId1"/>
@@ -1072,13 +1072,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB849E5-FBBE-478E-8932-AD2FB0668703}">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2331,13 +2331,13 @@
       <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
